--- a/biology/Histoire de la zoologie et de la botanique/Achille_Guénée/Achille_Guénée.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Achille_Guénée/Achille_Guénée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achille_Gu%C3%A9n%C3%A9e</t>
+          <t>Achille_Guénée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achille Guénée est un entomologiste français, né le 1er janvier 1809 à Chartres et mort le 30 décembre 1880 à Châteaudun.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achille_Gu%C3%A9n%C3%A9e</t>
+          <t>Achille_Guénée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Chartres où il s’intéresse très tôt aux papillons, conseillé par François de Villiers (1790-1847). Il vient étudier le droit à Paris, puis s'inscrit au barreau. Après la mort de son fils unique, il réside à Châteaudun aux « Chatelliers ».
 Durant la guerre de 1870, Châteaudun est brûlé par les Prussiens mais il retrouve ses collections intactes.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achille_Gu%C3%A9n%C3%A9e</t>
+          <t>Achille_Guénée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Iconographie des chenilles, pour faire suite à l'ouvrage intitulé Histoire naturelle des Lépidoptères Tome 1, Diurnes / par J.-B. Godart, continuée par P.-A.-J. Duponchel / Paris : Méquignon-Marvis , 1832
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iconographie des chenilles, pour faire suite à l'ouvrage intitulé Histoire naturelle des Lépidoptères Tome 1, Diurnes / par J.-B. Godart, continuée par P.-A.-J. Duponchel / Paris : Méquignon-Marvis , 1832
 Iconographie des chenilles : pour faire suite à l'ouvrage intitulé : Histoire naturelle des lépidoptères, ou papillons de France, par J.-B. Godart / ouvrage basé sur la méthode de Latreille ; avec les figures de chaque espèce, dessinées et coloriées d'après nature par P. Duménil, peintre d'histoire naturelle ; continuées P.-A.-J. Duponchel / Paris : Méquignon-Marvis , 1832-1849
 Tableaux synoptiques des l'epidoptères d'Europe : contenant la description de tous les l'epidoptères connus jusqu'à ce jour / par Mm. de Villiers et Guen'ee / Paris : M'equignon-Marvis , 1835
 Histoire naturelle des insectes : species général des lépidoptères / par le Dr Boisduval, etc.[et M.] Guenée / Paris : Librairie encyclopédique de Roret , 1836-1858
@@ -559,7 +575,7 @@
 Histoire naturelle des insectes Tome huitième, Deltoïdes et pyralites : Species général des lépidoptères : ouvrage accompagné de planches / par MM Boisduval et Guenée / par M.A. Guénée / Paris : Librairie encyclopédique de Roret , 1854
 Histoire naturelle des insectes [Tomes neuvième et dixième], Uranides et phalénites [Tomes I et II], : Species général des lépidoptères : ouvrage accompagné de planches / par MM. Boisduval et Guenée / par M. A. Guenée / Paris : Librairie encyclopédique de Roret , 1857
 Statistique scientifique d'Eure et Loir : Lépidoptères / par M. Achille Guenée / Chartres : Petrot-Garnier , 1867
-Histoire naturelle des insectes : Species général des lépidoptères : [planches composant les deux livraisons qui accompagnent le 1er volume] / par Messieurs Boisduval et Guénée / Paris : Librairie encyclopédique de Roret , [1858]</t>
+Histoire naturelle des insectes : Species général des lépidoptères : [planches composant les deux livraisons qui accompagnent le 1er volume] / par Messieurs Boisduval et Guénée / Paris : Librairie encyclopédique de Roret , </t>
         </is>
       </c>
     </row>
